--- a/LKG/Result.xlsx
+++ b/LKG/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>Student Name</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>Abhik Upadhya</t>
@@ -533,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,16 +657,22 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -738,42 +750,48 @@
         <v>7.2</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AI2">
         <v>44.40000000000001</v>
       </c>
       <c r="AJ2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK2">
         <v>600</v>
       </c>
+      <c r="AL2">
+        <v>7.400000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -851,42 +869,48 @@
         <v>24.8</v>
       </c>
       <c r="AC3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AI3">
         <v>133.2</v>
       </c>
       <c r="AJ3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK3">
         <v>600</v>
       </c>
+      <c r="AL3">
+        <v>22.2</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -964,42 +988,48 @@
         <v>42.8</v>
       </c>
       <c r="AC4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI4">
         <v>244.8</v>
       </c>
       <c r="AJ4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK4">
         <v>600</v>
       </c>
+      <c r="AL4">
+        <v>40.8</v>
+      </c>
+      <c r="AM4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1077,42 +1107,48 @@
         <v>34.8</v>
       </c>
       <c r="AC5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI5">
         <v>177.6</v>
       </c>
       <c r="AJ5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK5">
         <v>600</v>
       </c>
+      <c r="AL5">
+        <v>29.6</v>
+      </c>
+      <c r="AM5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1190,42 +1226,48 @@
         <v>15.2</v>
       </c>
       <c r="AC6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AI6">
         <v>118.8</v>
       </c>
       <c r="AJ6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK6">
         <v>600</v>
       </c>
+      <c r="AL6">
+        <v>19.8</v>
+      </c>
+      <c r="AM6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1303,42 +1345,48 @@
         <v>33.6</v>
       </c>
       <c r="AC7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI7">
         <v>214.8</v>
       </c>
       <c r="AJ7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK7">
         <v>600</v>
       </c>
+      <c r="AL7">
+        <v>35.8</v>
+      </c>
+      <c r="AM7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1416,42 +1464,48 @@
         <v>45.2</v>
       </c>
       <c r="AC8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI8">
         <v>265.6</v>
       </c>
       <c r="AJ8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK8">
         <v>600</v>
       </c>
+      <c r="AL8">
+        <v>44.26666666666667</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1529,42 +1583,48 @@
         <v>50.00000000000001</v>
       </c>
       <c r="AC9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI9">
         <v>285.6</v>
       </c>
       <c r="AJ9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK9">
         <v>600</v>
       </c>
+      <c r="AL9">
+        <v>47.6</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1642,42 +1702,48 @@
         <v>41.2</v>
       </c>
       <c r="AC10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI10">
         <v>192.8</v>
       </c>
       <c r="AJ10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK10">
         <v>600</v>
       </c>
+      <c r="AL10">
+        <v>32.13333333333333</v>
+      </c>
+      <c r="AM10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1755,42 +1821,48 @@
         <v>41.2</v>
       </c>
       <c r="AC11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI11">
         <v>242.8</v>
       </c>
       <c r="AJ11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK11">
         <v>600</v>
       </c>
+      <c r="AL11">
+        <v>40.46666666666667</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1868,42 +1940,48 @@
         <v>28.8</v>
       </c>
       <c r="AC12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AG12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AI12">
         <v>142</v>
       </c>
       <c r="AJ12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK12">
         <v>600</v>
       </c>
+      <c r="AL12">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="AM12">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1981,31 +2059,37 @@
         <v>42</v>
       </c>
       <c r="AC13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AE13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AI13">
         <v>235.6</v>
       </c>
       <c r="AJ13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AK13">
         <v>600</v>
+      </c>
+      <c r="AL13">
+        <v>39.26666666666667</v>
+      </c>
+      <c r="AM13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LKG/Result.xlsx
+++ b/LKG/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
   <si>
     <t>Student Name</t>
   </si>
@@ -31,57 +31,165 @@
     <t>Formative Assessment I_Maths</t>
   </si>
   <si>
+    <t>Formative Assessment I_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Maths_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment I_Oral Maths</t>
   </si>
   <si>
+    <t>Formative Assessment I_Oral Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Oral Maths_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment I_Rhymes</t>
   </si>
   <si>
+    <t>Formative Assessment I_Rhymes_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Rhymes_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment I_English</t>
   </si>
   <si>
+    <t>Formative Assessment I_English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_English_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment I_Oral English</t>
   </si>
   <si>
+    <t>Formative Assessment I_Oral English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Oral English_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment I_Drawing</t>
   </si>
   <si>
+    <t>Formative Assessment I_Drawing_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment I_Drawing_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment-2_Maths</t>
   </si>
   <si>
+    <t>Formative Assessment-2_Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Maths_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment-2_Oral Maths</t>
   </si>
   <si>
+    <t>Formative Assessment-2_Oral Maths_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Oral Maths_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment-2_Rhymes</t>
   </si>
   <si>
+    <t>Formative Assessment-2_Rhymes_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Rhymes_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment-2_English</t>
   </si>
   <si>
+    <t>Formative Assessment-2_English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_English_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment-2_Oral English</t>
   </si>
   <si>
+    <t>Formative Assessment-2_Oral English_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Oral English_pass</t>
+  </si>
+  <si>
     <t>Formative Assessment-2_Drawing</t>
   </si>
   <si>
+    <t>Formative Assessment-2_Drawing_total</t>
+  </si>
+  <si>
+    <t>Formative Assessment-2_Drawing_pass</t>
+  </si>
+  <si>
     <t>Half Yearly Exam_Maths</t>
   </si>
   <si>
+    <t>Half Yearly Exam_Maths_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Maths_pass</t>
+  </si>
+  <si>
     <t>Half Yearly Exam_Oral Maths</t>
   </si>
   <si>
+    <t>Half Yearly Exam_Oral Maths_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Oral Maths_pass</t>
+  </si>
+  <si>
     <t>Half Yearly Exam_Rhymes</t>
   </si>
   <si>
+    <t>Half Yearly Exam_Rhymes_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Rhymes_pass</t>
+  </si>
+  <si>
     <t>Half Yearly Exam_English</t>
   </si>
   <si>
+    <t>Half Yearly Exam_English_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_English_pass</t>
+  </si>
+  <si>
     <t>Half Yearly Exam_Oral English</t>
   </si>
   <si>
+    <t>Half Yearly Exam_Oral English_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Oral English_pass</t>
+  </si>
+  <si>
     <t>Half Yearly Exam_Drawing</t>
   </si>
   <si>
+    <t>Half Yearly Exam_Drawing_total</t>
+  </si>
+  <si>
+    <t>Half Yearly Exam_Drawing_pass</t>
+  </si>
+  <si>
     <t>Weightage Maths</t>
   </si>
   <si>
@@ -98,6 +206,24 @@
   </si>
   <si>
     <t>Weightage Drawing</t>
+  </si>
+  <si>
+    <t>Weightage Maths total</t>
+  </si>
+  <si>
+    <t>Weightage Oral Maths total</t>
+  </si>
+  <si>
+    <t>Weightage Rhymes total</t>
+  </si>
+  <si>
+    <t>Weightage English total</t>
+  </si>
+  <si>
+    <t>Weightage Oral English total</t>
+  </si>
+  <si>
+    <t>Weightage Drawing total</t>
   </si>
   <si>
     <t>Result Maths</t>
@@ -539,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:CC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,16 +789,142 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:81">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -681,117 +933,243 @@
         <v>8</v>
       </c>
       <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
         <v>10.5</v>
       </c>
-      <c r="I2">
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="U2">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="X2">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="AD2">
+        <v>25</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+      <c r="AF2">
         <v>24.5</v>
       </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
+      <c r="AG2">
+        <v>25</v>
+      </c>
+      <c r="AH2">
+        <v>7</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="AM2">
+        <v>25</v>
+      </c>
+      <c r="AN2">
+        <v>7</v>
+      </c>
+      <c r="AO2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="AP2">
+        <v>50</v>
+      </c>
+      <c r="AQ2">
+        <v>15</v>
+      </c>
+      <c r="AR2">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="AS2">
+        <v>30</v>
+      </c>
+      <c r="AT2">
+        <v>9</v>
+      </c>
+      <c r="AU2">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="AV2">
+        <v>50</v>
+      </c>
+      <c r="AW2">
+        <v>15</v>
+      </c>
+      <c r="AX2">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="AY2">
+        <v>50</v>
+      </c>
+      <c r="AZ2">
+        <v>15</v>
+      </c>
+      <c r="BA2">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="BB2">
+        <v>30</v>
+      </c>
+      <c r="BC2">
+        <v>9</v>
+      </c>
+      <c r="BD2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>3.2</v>
-      </c>
-      <c r="X2">
-        <v>3.2</v>
-      </c>
-      <c r="Y2">
-        <v>9.600000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>14</v>
-      </c>
-      <c r="AA2">
-        <v>7.2</v>
-      </c>
-      <c r="AB2">
-        <v>7.2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2">
-        <v>44.40000000000001</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2">
-        <v>600</v>
-      </c>
-      <c r="AL2">
-        <v>7.400000000000001</v>
-      </c>
-      <c r="AM2">
+      <c r="BE2">
+        <v>50</v>
+      </c>
+      <c r="BF2">
+        <v>15</v>
+      </c>
+      <c r="BG2">
+        <v>1.6</v>
+      </c>
+      <c r="BH2">
+        <v>1.6</v>
+      </c>
+      <c r="BI2">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="BJ2">
+        <v>7</v>
+      </c>
+      <c r="BK2">
+        <v>3.6</v>
+      </c>
+      <c r="BL2">
+        <v>3.6</v>
+      </c>
+      <c r="BM2">
+        <v>100</v>
+      </c>
+      <c r="BN2">
+        <v>58</v>
+      </c>
+      <c r="BO2">
+        <v>100</v>
+      </c>
+      <c r="BP2">
+        <v>100</v>
+      </c>
+      <c r="BQ2">
+        <v>58</v>
+      </c>
+      <c r="BR2">
+        <v>100</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY2">
+        <v>22.2</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA2">
+        <v>516</v>
+      </c>
+      <c r="CB2">
+        <v>4.302325581395349</v>
+      </c>
+      <c r="CC2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:81">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -800,117 +1178,243 @@
         <v>19</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
         <v>18</v>
       </c>
-      <c r="K3">
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
         <v>18</v>
       </c>
-      <c r="L3">
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
         <v>8</v>
       </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
+      <c r="AA3">
+        <v>10</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>15</v>
+      </c>
+      <c r="AD3">
+        <v>25</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
         <v>19</v>
       </c>
-      <c r="O3">
+      <c r="AG3">
+        <v>25</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+      <c r="AI3">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
         <v>12</v>
       </c>
-      <c r="Q3">
+      <c r="AM3">
+        <v>25</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
         <v>20</v>
       </c>
-      <c r="R3">
-        <v>15</v>
-      </c>
-      <c r="S3">
-        <v>15</v>
-      </c>
-      <c r="T3">
+      <c r="AP3">
+        <v>50</v>
+      </c>
+      <c r="AQ3">
+        <v>15</v>
+      </c>
+      <c r="AR3">
+        <v>15</v>
+      </c>
+      <c r="AS3">
+        <v>30</v>
+      </c>
+      <c r="AT3">
+        <v>9</v>
+      </c>
+      <c r="AU3">
+        <v>15</v>
+      </c>
+      <c r="AV3">
+        <v>50</v>
+      </c>
+      <c r="AW3">
+        <v>15</v>
+      </c>
+      <c r="AX3">
         <v>22</v>
       </c>
-      <c r="U3">
+      <c r="AY3">
+        <v>50</v>
+      </c>
+      <c r="AZ3">
+        <v>15</v>
+      </c>
+      <c r="BA3">
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="BB3">
+        <v>30</v>
+      </c>
+      <c r="BC3">
+        <v>9</v>
+      </c>
+      <c r="BD3">
         <v>16</v>
       </c>
-      <c r="W3">
-        <v>30.8</v>
-      </c>
-      <c r="X3">
-        <v>19.2</v>
-      </c>
-      <c r="Y3">
-        <v>24</v>
-      </c>
-      <c r="Z3">
-        <v>30.4</v>
-      </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3">
-        <v>24.8</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI3">
-        <v>133.2</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK3">
-        <v>600</v>
-      </c>
-      <c r="AL3">
-        <v>22.2</v>
-      </c>
-      <c r="AM3">
+      <c r="BE3">
+        <v>50</v>
+      </c>
+      <c r="BF3">
+        <v>15</v>
+      </c>
+      <c r="BG3">
+        <v>43.4</v>
+      </c>
+      <c r="BH3">
+        <v>30.6</v>
+      </c>
+      <c r="BI3">
+        <v>33</v>
+      </c>
+      <c r="BJ3">
+        <v>46</v>
+      </c>
+      <c r="BK3">
+        <v>2</v>
+      </c>
+      <c r="BL3">
+        <v>34.8</v>
+      </c>
+      <c r="BM3">
+        <v>100</v>
+      </c>
+      <c r="BN3">
+        <v>58</v>
+      </c>
+      <c r="BO3">
+        <v>100</v>
+      </c>
+      <c r="BP3">
+        <v>100</v>
+      </c>
+      <c r="BQ3">
+        <v>58</v>
+      </c>
+      <c r="BR3">
+        <v>100</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY3">
+        <v>189.8</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA3">
+        <v>516</v>
+      </c>
+      <c r="CB3">
+        <v>36.78294573643411</v>
+      </c>
+      <c r="CC3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:81">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -919,117 +1423,243 @@
         <v>18</v>
       </c>
       <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
         <v>23</v>
       </c>
-      <c r="L4">
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
         <v>24</v>
       </c>
-      <c r="N4">
+      <c r="AD4">
+        <v>25</v>
+      </c>
+      <c r="AE4">
+        <v>7</v>
+      </c>
+      <c r="AF4">
         <v>11</v>
       </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
+      <c r="AG4">
+        <v>25</v>
+      </c>
+      <c r="AH4">
+        <v>7</v>
+      </c>
+      <c r="AI4">
+        <v>10</v>
+      </c>
+      <c r="AJ4">
+        <v>10</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
         <v>17</v>
       </c>
-      <c r="Q4">
+      <c r="AM4">
+        <v>25</v>
+      </c>
+      <c r="AN4">
+        <v>7</v>
+      </c>
+      <c r="AO4">
         <v>44</v>
       </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
-      </c>
-      <c r="T4">
+      <c r="AP4">
+        <v>50</v>
+      </c>
+      <c r="AQ4">
+        <v>15</v>
+      </c>
+      <c r="AR4">
+        <v>25</v>
+      </c>
+      <c r="AS4">
+        <v>30</v>
+      </c>
+      <c r="AT4">
+        <v>9</v>
+      </c>
+      <c r="AU4">
+        <v>50</v>
+      </c>
+      <c r="AV4">
+        <v>50</v>
+      </c>
+      <c r="AW4">
+        <v>15</v>
+      </c>
+      <c r="AX4">
         <v>31</v>
       </c>
-      <c r="U4">
+      <c r="AY4">
+        <v>50</v>
+      </c>
+      <c r="AZ4">
+        <v>15</v>
+      </c>
+      <c r="BA4">
         <v>28</v>
       </c>
-      <c r="V4">
+      <c r="BB4">
+        <v>30</v>
+      </c>
+      <c r="BC4">
+        <v>9</v>
+      </c>
+      <c r="BD4">
         <v>35</v>
       </c>
-      <c r="W4">
-        <v>51.60000000000001</v>
-      </c>
-      <c r="X4">
-        <v>26</v>
-      </c>
-      <c r="Y4">
-        <v>59.6</v>
-      </c>
-      <c r="Z4">
-        <v>36</v>
-      </c>
-      <c r="AA4">
-        <v>28.8</v>
-      </c>
-      <c r="AB4">
-        <v>42.8</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4">
-        <v>244.8</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK4">
-        <v>600</v>
-      </c>
-      <c r="AL4">
-        <v>40.8</v>
-      </c>
-      <c r="AM4">
-        <v>3</v>
+      <c r="BE4">
+        <v>50</v>
+      </c>
+      <c r="BF4">
+        <v>15</v>
+      </c>
+      <c r="BG4">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="BH4">
+        <v>48</v>
+      </c>
+      <c r="BI4">
+        <v>99.8</v>
+      </c>
+      <c r="BJ4">
+        <v>61.40000000000001</v>
+      </c>
+      <c r="BK4">
+        <v>53.6</v>
+      </c>
+      <c r="BL4">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="BM4">
+        <v>100</v>
+      </c>
+      <c r="BN4">
+        <v>58</v>
+      </c>
+      <c r="BO4">
+        <v>100</v>
+      </c>
+      <c r="BP4">
+        <v>100</v>
+      </c>
+      <c r="BQ4">
+        <v>58</v>
+      </c>
+      <c r="BR4">
+        <v>100</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY4">
+        <v>420.6</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA4">
+        <v>516</v>
+      </c>
+      <c r="CB4">
+        <v>81.51162790697674</v>
+      </c>
+      <c r="CC4">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:81">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1038,117 +1668,243 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
         <v>20</v>
       </c>
-      <c r="K5">
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
         <v>9</v>
       </c>
-      <c r="M5">
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
         <v>23</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
+      <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>25</v>
+      </c>
+      <c r="AH5">
+        <v>7</v>
+      </c>
+      <c r="AI5">
+        <v>7</v>
+      </c>
+      <c r="AJ5">
+        <v>10</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
         <v>17</v>
       </c>
-      <c r="Q5">
+      <c r="AM5">
+        <v>25</v>
+      </c>
+      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
         <v>27</v>
       </c>
-      <c r="R5">
+      <c r="AP5">
+        <v>50</v>
+      </c>
+      <c r="AQ5">
+        <v>15</v>
+      </c>
+      <c r="AR5">
         <v>21</v>
       </c>
-      <c r="S5">
+      <c r="AS5">
+        <v>30</v>
+      </c>
+      <c r="AT5">
+        <v>9</v>
+      </c>
+      <c r="AU5">
         <v>48</v>
       </c>
-      <c r="T5">
+      <c r="AV5">
+        <v>50</v>
+      </c>
+      <c r="AW5">
+        <v>15</v>
+      </c>
+      <c r="AX5">
         <v>14.5</v>
       </c>
-      <c r="U5">
-        <v>15</v>
-      </c>
-      <c r="V5">
-        <v>25</v>
-      </c>
-      <c r="W5">
-        <v>28</v>
-      </c>
-      <c r="X5">
-        <v>23.2</v>
-      </c>
-      <c r="Y5">
-        <v>56.80000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>18</v>
-      </c>
-      <c r="AA5">
-        <v>16.8</v>
-      </c>
-      <c r="AB5">
-        <v>34.8</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5">
-        <v>177.6</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5">
-        <v>600</v>
-      </c>
-      <c r="AL5">
-        <v>29.6</v>
-      </c>
-      <c r="AM5">
+      <c r="AY5">
+        <v>50</v>
+      </c>
+      <c r="AZ5">
+        <v>15</v>
+      </c>
+      <c r="BA5">
+        <v>15</v>
+      </c>
+      <c r="BB5">
+        <v>30</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>25</v>
+      </c>
+      <c r="BE5">
+        <v>50</v>
+      </c>
+      <c r="BF5">
+        <v>15</v>
+      </c>
+      <c r="BG5">
+        <v>51.8</v>
+      </c>
+      <c r="BH5">
+        <v>41.00000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>95.60000000000001</v>
+      </c>
+      <c r="BJ5">
+        <v>29.3</v>
+      </c>
+      <c r="BK5">
+        <v>29.4</v>
+      </c>
+      <c r="BL5">
+        <v>52.4</v>
+      </c>
+      <c r="BM5">
+        <v>100</v>
+      </c>
+      <c r="BN5">
+        <v>58</v>
+      </c>
+      <c r="BO5">
+        <v>100</v>
+      </c>
+      <c r="BP5">
+        <v>100</v>
+      </c>
+      <c r="BQ5">
+        <v>58</v>
+      </c>
+      <c r="BR5">
+        <v>100</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY5">
+        <v>299.5000000000001</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA5">
+        <v>516</v>
+      </c>
+      <c r="CB5">
+        <v>58.04263565891474</v>
+      </c>
+      <c r="CC5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:81">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1157,117 +1913,243 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
         <v>22</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>25</v>
-      </c>
-      <c r="N6">
+      <c r="X6">
+        <v>25</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>25</v>
+      </c>
+      <c r="AD6">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <v>7</v>
+      </c>
+      <c r="AF6">
         <v>24</v>
       </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
+      <c r="AG6">
+        <v>25</v>
+      </c>
+      <c r="AH6">
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <v>10</v>
+      </c>
+      <c r="AJ6">
+        <v>10</v>
+      </c>
+      <c r="AK6">
+        <v>3</v>
+      </c>
+      <c r="AL6">
         <v>18</v>
       </c>
-      <c r="Q6">
-        <v>15</v>
-      </c>
-      <c r="R6">
+      <c r="AM6">
+        <v>25</v>
+      </c>
+      <c r="AN6">
+        <v>7</v>
+      </c>
+      <c r="AO6">
+        <v>15</v>
+      </c>
+      <c r="AP6">
+        <v>50</v>
+      </c>
+      <c r="AQ6">
+        <v>15</v>
+      </c>
+      <c r="AR6">
         <v>27</v>
       </c>
-      <c r="S6">
+      <c r="AS6">
+        <v>30</v>
+      </c>
+      <c r="AT6">
+        <v>9</v>
+      </c>
+      <c r="AU6">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="AV6">
+        <v>50</v>
+      </c>
+      <c r="AW6">
+        <v>15</v>
+      </c>
+      <c r="AX6">
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="AY6">
+        <v>50</v>
+      </c>
+      <c r="AZ6">
+        <v>15</v>
+      </c>
+      <c r="BA6">
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="BB6">
+        <v>30</v>
+      </c>
+      <c r="BC6">
+        <v>9</v>
+      </c>
+      <c r="BD6">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>27.6</v>
-      </c>
-      <c r="X6">
-        <v>29.6</v>
-      </c>
-      <c r="Y6">
-        <v>20</v>
-      </c>
-      <c r="Z6">
-        <v>18.4</v>
-      </c>
-      <c r="AA6">
-        <v>8</v>
-      </c>
-      <c r="AB6">
-        <v>15.2</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6">
-        <v>118.8</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6">
-        <v>600</v>
-      </c>
-      <c r="AL6">
-        <v>19.8</v>
-      </c>
-      <c r="AM6">
+      <c r="BE6">
+        <v>50</v>
+      </c>
+      <c r="BF6">
+        <v>15</v>
+      </c>
+      <c r="BG6">
+        <v>34.8</v>
+      </c>
+      <c r="BH6">
+        <v>52.6</v>
+      </c>
+      <c r="BI6">
+        <v>10</v>
+      </c>
+      <c r="BJ6">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="BK6">
+        <v>4</v>
+      </c>
+      <c r="BL6">
+        <v>7.6</v>
+      </c>
+      <c r="BM6">
+        <v>100</v>
+      </c>
+      <c r="BN6">
+        <v>58</v>
+      </c>
+      <c r="BO6">
+        <v>100</v>
+      </c>
+      <c r="BP6">
+        <v>100</v>
+      </c>
+      <c r="BQ6">
+        <v>58</v>
+      </c>
+      <c r="BR6">
+        <v>100</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BY6">
+        <v>118.2</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA6">
+        <v>516</v>
+      </c>
+      <c r="CB6">
+        <v>22.90697674418605</v>
+      </c>
+      <c r="CC6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:81">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1276,117 +2158,243 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
         <v>21</v>
       </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
         <v>20</v>
       </c>
-      <c r="K7">
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
         <v>8</v>
       </c>
-      <c r="L7">
+      <c r="X7">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
         <v>22</v>
       </c>
-      <c r="N7">
+      <c r="AD7">
+        <v>25</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AF7">
         <v>13</v>
       </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
-      <c r="P7">
+      <c r="AG7">
+        <v>25</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>10</v>
+      </c>
+      <c r="AJ7">
+        <v>10</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
         <v>14</v>
       </c>
-      <c r="Q7">
+      <c r="AM7">
+        <v>25</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
         <v>34</v>
       </c>
-      <c r="R7">
+      <c r="AP7">
+        <v>50</v>
+      </c>
+      <c r="AQ7">
+        <v>15</v>
+      </c>
+      <c r="AR7">
         <v>21</v>
       </c>
-      <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="T7">
+      <c r="AS7">
+        <v>30</v>
+      </c>
+      <c r="AT7">
+        <v>9</v>
+      </c>
+      <c r="AU7">
+        <v>50</v>
+      </c>
+      <c r="AV7">
+        <v>50</v>
+      </c>
+      <c r="AW7">
+        <v>15</v>
+      </c>
+      <c r="AX7">
         <v>27.5</v>
       </c>
-      <c r="U7">
+      <c r="AY7">
+        <v>50</v>
+      </c>
+      <c r="AZ7">
+        <v>15</v>
+      </c>
+      <c r="BA7">
         <v>27</v>
       </c>
-      <c r="V7">
-        <v>25</v>
-      </c>
-      <c r="W7">
-        <v>34.40000000000001</v>
-      </c>
-      <c r="X7">
-        <v>22.8</v>
-      </c>
-      <c r="Y7">
-        <v>58.8</v>
-      </c>
-      <c r="Z7">
-        <v>35.6</v>
-      </c>
-      <c r="AA7">
-        <v>29.6</v>
-      </c>
-      <c r="AB7">
-        <v>33.6</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7">
-        <v>214.8</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK7">
-        <v>600</v>
-      </c>
-      <c r="AL7">
-        <v>35.8</v>
-      </c>
-      <c r="AM7">
+      <c r="BB7">
+        <v>30</v>
+      </c>
+      <c r="BC7">
+        <v>9</v>
+      </c>
+      <c r="BD7">
+        <v>25</v>
+      </c>
+      <c r="BE7">
+        <v>50</v>
+      </c>
+      <c r="BF7">
+        <v>15</v>
+      </c>
+      <c r="BG7">
+        <v>64.8</v>
+      </c>
+      <c r="BH7">
+        <v>40.8</v>
+      </c>
+      <c r="BI7">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>56.3</v>
+      </c>
+      <c r="BK7">
+        <v>52.6</v>
+      </c>
+      <c r="BL7">
+        <v>51.8</v>
+      </c>
+      <c r="BM7">
+        <v>100</v>
+      </c>
+      <c r="BN7">
+        <v>58</v>
+      </c>
+      <c r="BO7">
+        <v>100</v>
+      </c>
+      <c r="BP7">
+        <v>100</v>
+      </c>
+      <c r="BQ7">
+        <v>58</v>
+      </c>
+      <c r="BR7">
+        <v>100</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY7">
+        <v>365.7</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA7">
+        <v>516</v>
+      </c>
+      <c r="CB7">
+        <v>70.87209302325583</v>
+      </c>
+      <c r="CC7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:81">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1395,117 +2403,243 @@
         <v>25</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>25</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>25</v>
-      </c>
-      <c r="N8">
+      <c r="U8">
+        <v>25</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
+      <c r="X8">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>25</v>
+      </c>
+      <c r="AD8">
+        <v>25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
         <v>24</v>
       </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8">
+      <c r="AG8">
+        <v>25</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <v>10</v>
+      </c>
+      <c r="AK8">
+        <v>3</v>
+      </c>
+      <c r="AL8">
         <v>22</v>
       </c>
-      <c r="Q8">
+      <c r="AM8">
+        <v>25</v>
+      </c>
+      <c r="AN8">
+        <v>7</v>
+      </c>
+      <c r="AO8">
         <v>48</v>
       </c>
-      <c r="R8">
+      <c r="AP8">
+        <v>50</v>
+      </c>
+      <c r="AQ8">
+        <v>15</v>
+      </c>
+      <c r="AR8">
         <v>28</v>
       </c>
-      <c r="S8">
-        <v>50</v>
-      </c>
-      <c r="T8">
+      <c r="AS8">
+        <v>30</v>
+      </c>
+      <c r="AT8">
+        <v>9</v>
+      </c>
+      <c r="AU8">
+        <v>50</v>
+      </c>
+      <c r="AV8">
+        <v>50</v>
+      </c>
+      <c r="AW8">
+        <v>15</v>
+      </c>
+      <c r="AX8">
         <v>37.5</v>
       </c>
-      <c r="U8">
+      <c r="AY8">
+        <v>50</v>
+      </c>
+      <c r="AZ8">
+        <v>15</v>
+      </c>
+      <c r="BA8">
         <v>30</v>
       </c>
-      <c r="V8">
+      <c r="BB8">
+        <v>30</v>
+      </c>
+      <c r="BC8">
+        <v>9</v>
+      </c>
+      <c r="BD8">
         <v>35</v>
       </c>
-      <c r="W8">
-        <v>58.40000000000001</v>
-      </c>
-      <c r="X8">
-        <v>30.4</v>
-      </c>
-      <c r="Y8">
-        <v>60</v>
-      </c>
-      <c r="Z8">
-        <v>39.6</v>
-      </c>
-      <c r="AA8">
-        <v>32</v>
-      </c>
-      <c r="AB8">
-        <v>45.2</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI8">
-        <v>265.6</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK8">
-        <v>600</v>
-      </c>
-      <c r="AL8">
-        <v>44.26666666666667</v>
-      </c>
-      <c r="AM8">
+      <c r="BE8">
+        <v>50</v>
+      </c>
+      <c r="BF8">
+        <v>15</v>
+      </c>
+      <c r="BG8">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>54.4</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>72.3</v>
+      </c>
+      <c r="BK8">
+        <v>58</v>
+      </c>
+      <c r="BL8">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="BM8">
+        <v>100</v>
+      </c>
+      <c r="BN8">
+        <v>58</v>
+      </c>
+      <c r="BO8">
+        <v>100</v>
+      </c>
+      <c r="BP8">
+        <v>100</v>
+      </c>
+      <c r="BQ8">
+        <v>58</v>
+      </c>
+      <c r="BR8">
+        <v>100</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY8">
+        <v>452.7</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA8">
+        <v>516</v>
+      </c>
+      <c r="CB8">
+        <v>87.73255813953489</v>
+      </c>
+      <c r="CC8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:81">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1514,117 +2648,243 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
         <v>24</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>25</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>25</v>
-      </c>
-      <c r="N9">
-        <v>25</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
+      <c r="U9">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>25</v>
+      </c>
+      <c r="X9">
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>25</v>
+      </c>
+      <c r="AD9">
+        <v>25</v>
+      </c>
+      <c r="AE9">
+        <v>7</v>
+      </c>
+      <c r="AF9">
+        <v>25</v>
+      </c>
+      <c r="AG9">
+        <v>25</v>
+      </c>
+      <c r="AH9">
+        <v>7</v>
+      </c>
+      <c r="AI9">
+        <v>10</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
         <v>24</v>
       </c>
-      <c r="Q9">
-        <v>50</v>
-      </c>
-      <c r="R9">
+      <c r="AM9">
+        <v>25</v>
+      </c>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9">
+        <v>50</v>
+      </c>
+      <c r="AP9">
+        <v>50</v>
+      </c>
+      <c r="AQ9">
+        <v>15</v>
+      </c>
+      <c r="AR9">
         <v>30</v>
       </c>
-      <c r="S9">
-        <v>50</v>
-      </c>
-      <c r="T9">
+      <c r="AS9">
+        <v>30</v>
+      </c>
+      <c r="AT9">
+        <v>9</v>
+      </c>
+      <c r="AU9">
+        <v>50</v>
+      </c>
+      <c r="AV9">
+        <v>50</v>
+      </c>
+      <c r="AW9">
+        <v>15</v>
+      </c>
+      <c r="AX9">
         <v>41.5</v>
       </c>
-      <c r="U9">
+      <c r="AY9">
+        <v>50</v>
+      </c>
+      <c r="AZ9">
+        <v>15</v>
+      </c>
+      <c r="BA9">
         <v>29</v>
       </c>
-      <c r="V9">
+      <c r="BB9">
+        <v>30</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
         <v>39</v>
       </c>
-      <c r="W9">
-        <v>59.6</v>
-      </c>
-      <c r="X9">
-        <v>32</v>
-      </c>
-      <c r="Y9">
-        <v>60</v>
-      </c>
-      <c r="Z9">
-        <v>52.8</v>
-      </c>
-      <c r="AA9">
-        <v>31.2</v>
-      </c>
-      <c r="AB9">
-        <v>50.00000000000001</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI9">
-        <v>285.6</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK9">
-        <v>600</v>
-      </c>
-      <c r="AL9">
-        <v>47.6</v>
-      </c>
-      <c r="AM9">
+      <c r="BE9">
+        <v>50</v>
+      </c>
+      <c r="BF9">
+        <v>15</v>
+      </c>
+      <c r="BG9">
+        <v>99.8</v>
+      </c>
+      <c r="BH9">
+        <v>58</v>
+      </c>
+      <c r="BI9">
+        <v>100</v>
+      </c>
+      <c r="BJ9">
+        <v>84.5</v>
+      </c>
+      <c r="BK9">
+        <v>56.2</v>
+      </c>
+      <c r="BL9">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="BM9">
+        <v>100</v>
+      </c>
+      <c r="BN9">
+        <v>58</v>
+      </c>
+      <c r="BO9">
+        <v>100</v>
+      </c>
+      <c r="BP9">
+        <v>100</v>
+      </c>
+      <c r="BQ9">
+        <v>58</v>
+      </c>
+      <c r="BR9">
+        <v>100</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY9">
+        <v>478.1</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA9">
+        <v>516</v>
+      </c>
+      <c r="CB9">
+        <v>92.65503875968992</v>
+      </c>
+      <c r="CC9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:81">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1633,117 +2893,243 @@
         <v>10</v>
       </c>
       <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>25</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
         <v>18</v>
       </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="M10">
-        <v>25</v>
-      </c>
-      <c r="N10">
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>25</v>
+      </c>
+      <c r="AD10">
+        <v>25</v>
+      </c>
+      <c r="AE10">
+        <v>7</v>
+      </c>
+      <c r="AF10">
         <v>11</v>
       </c>
-      <c r="O10">
+      <c r="AG10">
+        <v>25</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
         <v>8</v>
       </c>
-      <c r="P10">
+      <c r="AJ10">
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <v>3</v>
+      </c>
+      <c r="AL10">
         <v>17</v>
       </c>
-      <c r="Q10">
+      <c r="AM10">
+        <v>25</v>
+      </c>
+      <c r="AN10">
+        <v>7</v>
+      </c>
+      <c r="AO10">
         <v>23</v>
       </c>
-      <c r="R10">
+      <c r="AP10">
+        <v>50</v>
+      </c>
+      <c r="AQ10">
+        <v>15</v>
+      </c>
+      <c r="AR10">
         <v>20</v>
       </c>
-      <c r="S10">
+      <c r="AS10">
+        <v>30</v>
+      </c>
+      <c r="AT10">
+        <v>9</v>
+      </c>
+      <c r="AU10">
         <v>47</v>
       </c>
-      <c r="T10">
-        <v>15</v>
-      </c>
-      <c r="U10">
+      <c r="AV10">
+        <v>50</v>
+      </c>
+      <c r="AW10">
+        <v>15</v>
+      </c>
+      <c r="AX10">
+        <v>15</v>
+      </c>
+      <c r="AY10">
+        <v>50</v>
+      </c>
+      <c r="AZ10">
+        <v>15</v>
+      </c>
+      <c r="BA10">
         <v>27</v>
       </c>
-      <c r="V10">
+      <c r="BB10">
+        <v>30</v>
+      </c>
+      <c r="BC10">
+        <v>9</v>
+      </c>
+      <c r="BD10">
         <v>34</v>
       </c>
-      <c r="W10">
-        <v>28.4</v>
-      </c>
-      <c r="X10">
-        <v>20.4</v>
-      </c>
-      <c r="Y10">
-        <v>57.6</v>
-      </c>
-      <c r="Z10">
-        <v>18.4</v>
-      </c>
-      <c r="AA10">
-        <v>26.8</v>
-      </c>
-      <c r="AB10">
-        <v>41.2</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI10">
-        <v>192.8</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK10">
-        <v>600</v>
-      </c>
-      <c r="AL10">
-        <v>32.13333333333333</v>
-      </c>
-      <c r="AM10">
+      <c r="BE10">
+        <v>50</v>
+      </c>
+      <c r="BF10">
+        <v>15</v>
+      </c>
+      <c r="BG10">
+        <v>46.4</v>
+      </c>
+      <c r="BH10">
+        <v>38.2</v>
+      </c>
+      <c r="BI10">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="BJ10">
+        <v>30.2</v>
+      </c>
+      <c r="BK10">
+        <v>51.2</v>
+      </c>
+      <c r="BL10">
+        <v>68.2</v>
+      </c>
+      <c r="BM10">
+        <v>100</v>
+      </c>
+      <c r="BN10">
+        <v>58</v>
+      </c>
+      <c r="BO10">
+        <v>100</v>
+      </c>
+      <c r="BP10">
+        <v>100</v>
+      </c>
+      <c r="BQ10">
+        <v>58</v>
+      </c>
+      <c r="BR10">
+        <v>100</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY10">
+        <v>328.8</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA10">
+        <v>516</v>
+      </c>
+      <c r="CB10">
+        <v>63.72093023255812</v>
+      </c>
+      <c r="CC10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:81">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1752,117 +3138,243 @@
         <v>14</v>
       </c>
       <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
         <v>19</v>
       </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
         <v>19</v>
       </c>
-      <c r="K11">
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
         <v>19</v>
       </c>
-      <c r="L11">
+      <c r="X11">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
         <v>8</v>
       </c>
-      <c r="M11">
-        <v>25</v>
-      </c>
-      <c r="N11">
-        <v>15</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="P11">
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>25</v>
+      </c>
+      <c r="AD11">
+        <v>25</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>15</v>
+      </c>
+      <c r="AG11">
+        <v>25</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <v>3</v>
+      </c>
+      <c r="AL11">
         <v>16</v>
       </c>
-      <c r="Q11">
+      <c r="AM11">
+        <v>25</v>
+      </c>
+      <c r="AN11">
+        <v>7</v>
+      </c>
+      <c r="AO11">
         <v>49</v>
       </c>
-      <c r="R11">
-        <v>15</v>
-      </c>
-      <c r="S11">
+      <c r="AP11">
+        <v>50</v>
+      </c>
+      <c r="AQ11">
+        <v>15</v>
+      </c>
+      <c r="AR11">
+        <v>15</v>
+      </c>
+      <c r="AS11">
+        <v>30</v>
+      </c>
+      <c r="AT11">
+        <v>9</v>
+      </c>
+      <c r="AU11">
         <v>48</v>
       </c>
-      <c r="T11">
+      <c r="AV11">
+        <v>50</v>
+      </c>
+      <c r="AW11">
+        <v>15</v>
+      </c>
+      <c r="AX11">
         <v>39.5</v>
       </c>
-      <c r="U11">
+      <c r="AY11">
+        <v>50</v>
+      </c>
+      <c r="AZ11">
+        <v>15</v>
+      </c>
+      <c r="BA11">
         <v>27</v>
       </c>
-      <c r="V11">
+      <c r="BB11">
+        <v>30</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
         <v>34</v>
       </c>
-      <c r="W11">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="X11">
-        <v>17.2</v>
-      </c>
-      <c r="Y11">
-        <v>58.40000000000001</v>
-      </c>
-      <c r="Z11">
-        <v>45.2</v>
-      </c>
-      <c r="AA11">
-        <v>28.4</v>
-      </c>
-      <c r="AB11">
-        <v>41.2</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI11">
-        <v>242.8</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK11">
-        <v>600</v>
-      </c>
-      <c r="AL11">
-        <v>40.46666666666667</v>
-      </c>
-      <c r="AM11">
-        <v>4</v>
+      <c r="BE11">
+        <v>50</v>
+      </c>
+      <c r="BF11">
+        <v>15</v>
+      </c>
+      <c r="BG11">
+        <v>94.8</v>
+      </c>
+      <c r="BH11">
+        <v>29.6</v>
+      </c>
+      <c r="BI11">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="BJ11">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="BK11">
+        <v>52</v>
+      </c>
+      <c r="BL11">
+        <v>68.2</v>
+      </c>
+      <c r="BM11">
+        <v>100</v>
+      </c>
+      <c r="BN11">
+        <v>58</v>
+      </c>
+      <c r="BO11">
+        <v>100</v>
+      </c>
+      <c r="BP11">
+        <v>100</v>
+      </c>
+      <c r="BQ11">
+        <v>58</v>
+      </c>
+      <c r="BR11">
+        <v>100</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY11">
+        <v>418.9</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA11">
+        <v>516</v>
+      </c>
+      <c r="CB11">
+        <v>81.18217054263567</v>
+      </c>
+      <c r="CC11">
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:81">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1871,117 +3383,243 @@
         <v>8</v>
       </c>
       <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="J12">
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>7</v>
-      </c>
-      <c r="M12">
-        <v>25</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>25</v>
+      </c>
+      <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AE12">
+        <v>7</v>
+      </c>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>25</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>10</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>3</v>
+      </c>
+      <c r="AL12">
         <v>18</v>
       </c>
-      <c r="Q12">
-        <v>15</v>
-      </c>
-      <c r="R12">
-        <v>10</v>
-      </c>
-      <c r="S12">
+      <c r="AM12">
+        <v>25</v>
+      </c>
+      <c r="AN12">
+        <v>7</v>
+      </c>
+      <c r="AO12">
+        <v>15</v>
+      </c>
+      <c r="AP12">
+        <v>50</v>
+      </c>
+      <c r="AQ12">
+        <v>15</v>
+      </c>
+      <c r="AR12">
+        <v>10</v>
+      </c>
+      <c r="AS12">
+        <v>30</v>
+      </c>
+      <c r="AT12">
+        <v>9</v>
+      </c>
+      <c r="AU12">
         <v>46</v>
       </c>
-      <c r="T12">
+      <c r="AV12">
+        <v>50</v>
+      </c>
+      <c r="AW12">
+        <v>15</v>
+      </c>
+      <c r="AX12">
         <v>6</v>
       </c>
-      <c r="U12">
+      <c r="AY12">
+        <v>50</v>
+      </c>
+      <c r="AZ12">
+        <v>15</v>
+      </c>
+      <c r="BA12">
         <v>21</v>
       </c>
-      <c r="V12">
+      <c r="BB12">
+        <v>30</v>
+      </c>
+      <c r="BC12">
+        <v>9</v>
+      </c>
+      <c r="BD12">
         <v>27</v>
       </c>
-      <c r="W12">
-        <v>19.2</v>
-      </c>
-      <c r="X12">
-        <v>13.2</v>
-      </c>
-      <c r="Y12">
-        <v>46.8</v>
-      </c>
-      <c r="Z12">
-        <v>10.8</v>
-      </c>
-      <c r="AA12">
-        <v>23.2</v>
-      </c>
-      <c r="AB12">
-        <v>28.8</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12">
-        <v>142</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK12">
-        <v>600</v>
-      </c>
-      <c r="AL12">
-        <v>23.66666666666667</v>
-      </c>
-      <c r="AM12">
+      <c r="BE12">
+        <v>50</v>
+      </c>
+      <c r="BF12">
+        <v>15</v>
+      </c>
+      <c r="BG12">
+        <v>30.6</v>
+      </c>
+      <c r="BH12">
+        <v>20.6</v>
+      </c>
+      <c r="BI12">
+        <v>87.8</v>
+      </c>
+      <c r="BJ12">
+        <v>13.8</v>
+      </c>
+      <c r="BK12">
+        <v>41.00000000000001</v>
+      </c>
+      <c r="BL12">
+        <v>52.2</v>
+      </c>
+      <c r="BM12">
+        <v>100</v>
+      </c>
+      <c r="BN12">
+        <v>58</v>
+      </c>
+      <c r="BO12">
+        <v>100</v>
+      </c>
+      <c r="BP12">
+        <v>100</v>
+      </c>
+      <c r="BQ12">
+        <v>58</v>
+      </c>
+      <c r="BR12">
+        <v>100</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY12">
+        <v>246</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA12">
+        <v>516</v>
+      </c>
+      <c r="CB12">
+        <v>47.67441860465117</v>
+      </c>
+      <c r="CC12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:81">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1990,106 +3628,232 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>7</v>
+      </c>
+      <c r="W13">
         <v>24</v>
       </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
         <v>24</v>
       </c>
-      <c r="N13">
-        <v>25</v>
-      </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
-      <c r="P13">
+      <c r="AD13">
+        <v>25</v>
+      </c>
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>25</v>
+      </c>
+      <c r="AG13">
+        <v>25</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13">
+        <v>10</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13">
         <v>21</v>
       </c>
-      <c r="Q13">
+      <c r="AM13">
+        <v>25</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
         <v>48</v>
       </c>
-      <c r="R13">
+      <c r="AP13">
+        <v>50</v>
+      </c>
+      <c r="AQ13">
+        <v>15</v>
+      </c>
+      <c r="AR13">
         <v>27</v>
       </c>
-      <c r="S13">
+      <c r="AS13">
+        <v>30</v>
+      </c>
+      <c r="AT13">
+        <v>9</v>
+      </c>
+      <c r="AU13">
         <v>49</v>
       </c>
-      <c r="T13">
+      <c r="AV13">
+        <v>50</v>
+      </c>
+      <c r="AW13">
+        <v>15</v>
+      </c>
+      <c r="AX13">
         <v>41.5</v>
       </c>
-      <c r="U13">
+      <c r="AY13">
+        <v>50</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
         <v>30</v>
       </c>
-      <c r="V13">
+      <c r="BB13">
+        <v>30</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
         <v>42</v>
       </c>
-      <c r="W13">
-        <v>48.00000000000001</v>
-      </c>
-      <c r="X13">
-        <v>25.6</v>
-      </c>
-      <c r="Y13">
-        <v>48.8</v>
-      </c>
-      <c r="Z13">
-        <v>43.2</v>
-      </c>
-      <c r="AA13">
-        <v>28</v>
-      </c>
-      <c r="AB13">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI13">
-        <v>235.6</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK13">
-        <v>600</v>
-      </c>
-      <c r="AL13">
-        <v>39.26666666666667</v>
-      </c>
-      <c r="AM13">
-        <v>5</v>
+      <c r="BE13">
+        <v>50</v>
+      </c>
+      <c r="BF13">
+        <v>15</v>
+      </c>
+      <c r="BG13">
+        <v>91.2</v>
+      </c>
+      <c r="BH13">
+        <v>50.6</v>
+      </c>
+      <c r="BI13">
+        <v>93</v>
+      </c>
+      <c r="BJ13">
+        <v>79.7</v>
+      </c>
+      <c r="BK13">
+        <v>56</v>
+      </c>
+      <c r="BL13">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="BM13">
+        <v>100</v>
+      </c>
+      <c r="BN13">
+        <v>58</v>
+      </c>
+      <c r="BO13">
+        <v>100</v>
+      </c>
+      <c r="BP13">
+        <v>100</v>
+      </c>
+      <c r="BQ13">
+        <v>58</v>
+      </c>
+      <c r="BR13">
+        <v>100</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY13">
+        <v>450.3</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA13">
+        <v>516</v>
+      </c>
+      <c r="CB13">
+        <v>87.26744186046513</v>
+      </c>
+      <c r="CC13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
